--- a/Excel/Language/Language_Menu@c_4001.xlsx
+++ b/Excel/Language/Language_Menu@c_4001.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
-  <workbookPr defaultThemeVersion="202300"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SCNUET8\ETSCNU\Excel\Language\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{6DD77989-52D2-43FE-B835-84E7975FCC12}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D9F46A7-A505-47C0-8CC5-0C478C6FA6A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="13900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,12 +16,11 @@
     <sheet name="Menu" sheetId="3" r:id="rId1"/>
   </sheets>
   <calcPr calcId="0"/>
-  <fileRecoveryPr dataExtractLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="17">
   <si>
     <t>#</t>
   </si>
@@ -66,13 +65,21 @@
   </si>
   <si>
     <t>ffffff</t>
+  </si>
+  <si>
+    <t>角色属性</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>ffffff</t>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -103,6 +110,21 @@
     <font>
       <sz val="9"/>
       <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -140,7 +162,7 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -155,6 +177,10 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -492,9 +518,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="C2:G8"/>
+  <dimension ref="C2:G9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F9" sqref="F9"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <sheetData>
@@ -591,6 +619,20 @@
         <v>11</v>
       </c>
     </row>
+    <row r="9" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="C9" s="6">
+        <v>4004</v>
+      </c>
+      <c r="D9" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="E9" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="F9" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
